--- a/metrics/transfer_time/cleaned_data/Redis_02.vda.xlsx
+++ b/metrics/transfer_time/cleaned_data/Redis_02.vda.xlsx
@@ -517,7 +517,9 @@
       <c r="I2" t="n">
         <v>33.5</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -547,7 +549,9 @@
       <c r="I3" t="n">
         <v>42</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -577,7 +581,9 @@
       <c r="I4" t="n">
         <v>38.5</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -607,7 +613,9 @@
       <c r="I5" t="n">
         <v>58.5</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -637,7 +645,9 @@
       <c r="I6" t="n">
         <v>54.5</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -667,7 +677,9 @@
       <c r="I7" t="n">
         <v>42</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -697,7 +709,9 @@
       <c r="I8" t="n">
         <v>50.5</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -727,7 +741,9 @@
       <c r="I9" t="n">
         <v>50.5</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -757,7 +773,9 @@
       <c r="I10" t="n">
         <v>46.5</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -787,7 +805,9 @@
       <c r="I11" t="n">
         <v>46</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -817,7 +837,9 @@
       <c r="I12" t="n">
         <v>46</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -847,7 +869,9 @@
       <c r="I13" t="n">
         <v>89.5</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -877,7 +901,9 @@
       <c r="I14" t="n">
         <v>58.5</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -907,7 +933,9 @@
       <c r="I15" t="n">
         <v>46</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -937,7 +965,9 @@
       <c r="I16" t="n">
         <v>42</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -967,7 +997,9 @@
       <c r="I17" t="n">
         <v>42</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -997,7 +1029,9 @@
       <c r="I18" t="n">
         <v>46</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1027,7 +1061,9 @@
       <c r="I19" t="n">
         <v>42</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1057,7 +1093,9 @@
       <c r="I20" t="n">
         <v>50</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1087,7 +1125,9 @@
       <c r="I21" t="n">
         <v>46</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1117,7 +1157,9 @@
       <c r="I22" t="n">
         <v>87.5</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1147,7 +1189,9 @@
       <c r="I23" t="n">
         <v>46</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1177,7 +1221,9 @@
       <c r="I24" t="n">
         <v>42</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1207,7 +1253,9 @@
       <c r="I25" t="n">
         <v>58</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1237,7 +1285,9 @@
       <c r="I26" t="n">
         <v>42</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1267,7 +1317,9 @@
       <c r="I27" t="n">
         <v>46</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1297,7 +1349,9 @@
       <c r="I28" t="n">
         <v>38</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1327,7 +1381,9 @@
       <c r="I29" t="n">
         <v>42</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1357,7 +1413,9 @@
       <c r="I30" t="n">
         <v>38</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1387,7 +1445,9 @@
       <c r="I31" t="n">
         <v>46</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1417,7 +1477,9 @@
       <c r="I32" t="n">
         <v>87</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1447,7 +1509,9 @@
       <c r="I33" t="n">
         <v>104.5</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1477,7 +1541,9 @@
       <c r="I34" t="n">
         <v>78</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1507,7 +1573,9 @@
       <c r="I35" t="n">
         <v>83.5</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1537,7 +1605,9 @@
       <c r="I36" t="n">
         <v>86.5</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1567,7 +1637,9 @@
       <c r="I37" t="n">
         <v>99</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1597,7 +1669,9 @@
       <c r="I38" t="n">
         <v>117.5</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1627,7 +1701,9 @@
       <c r="I39" t="n">
         <v>59</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1657,7 +1733,9 @@
       <c r="I40" t="n">
         <v>126</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1687,7 +1765,9 @@
       <c r="I41" t="n">
         <v>34</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1717,7 +1797,9 @@
       <c r="I42" t="n">
         <v>80</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1747,7 +1829,9 @@
       <c r="I43" t="n">
         <v>42</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1777,7 +1861,9 @@
       <c r="I44" t="n">
         <v>54</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1807,7 +1893,9 @@
       <c r="I45" t="n">
         <v>84</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1837,7 +1925,9 @@
       <c r="I46" t="n">
         <v>30</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1867,7 +1957,9 @@
       <c r="I47" t="n">
         <v>38</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1897,7 +1989,9 @@
       <c r="I48" t="n">
         <v>42</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1927,7 +2021,9 @@
       <c r="I49" t="n">
         <v>50.5</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1957,7 +2053,9 @@
       <c r="I50" t="n">
         <v>30</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1987,7 +2085,9 @@
       <c r="I51" t="n">
         <v>38</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2017,7 +2117,9 @@
       <c r="I52" t="n">
         <v>42</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2047,7 +2149,9 @@
       <c r="I53" t="n">
         <v>46</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2077,7 +2181,9 @@
       <c r="I54" t="n">
         <v>46</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2107,7 +2213,9 @@
       <c r="I55" t="n">
         <v>38</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2137,7 +2245,9 @@
       <c r="I56" t="n">
         <v>38</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2167,7 +2277,9 @@
       <c r="I57" t="n">
         <v>58</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2197,7 +2309,9 @@
       <c r="I58" t="n">
         <v>50</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2227,7 +2341,9 @@
       <c r="I59" t="n">
         <v>46</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2257,7 +2373,9 @@
       <c r="I60" t="n">
         <v>34</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2287,7 +2405,9 @@
       <c r="I61" t="n">
         <v>34</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4917,17 +5037,33 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10.5</v>
+      </c>
       <c r="D144" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+      <c r="I144" t="n">
+        <v>42</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
